--- a/medicine/Enfance/Trilogie_de_Bartiméus/Trilogie_de_Bartiméus.xlsx
+++ b/medicine/Enfance/Trilogie_de_Bartiméus/Trilogie_de_Bartiméus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trilogie_de_Bartim%C3%A9us</t>
+          <t>Trilogie_de_Bartiméus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Trilogie de Bartiméus (Bartimaeus Sequence) se compose de trois livres de jeunesse de fantasy écrits par Jonathan Stroud et parus entre 2003 et 2005.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trilogie_de_Bartim%C3%A9us</t>
+          <t>Trilogie_de_Bartiméus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,14 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Amulette de Samarcande (2003)
-Bartiméus (prononcez Bartiméouss ou Bartiméuss), djinn vieux de quelque 5 000 ans, qui conversa avec Salomon, reconstruisit les remparts d'Uruk et de Prague, est invoqué, au XXIe siècle, par un jeune apprenti magicien (nom de naissance Nathaniel) résidant à Londres, qui va lui demander, à sa grande surprise, de subtiliser au puissant magicien Simon Lovelace l'amulette de Samarcande. Celle-ci est en fait au centre d'un complot qui entraînera Bartiméus à sauver régulièrement la vie de son maître surdoué, au cours de leur périple. Mais Nathaniel est imprévisible et Bartiméus doté d'un humour décapant – il s'amuse aux dépens des magiciens, démons et plébéiens.
-L'Œil du Golem (2004)
-Nathaniel, recruté par le ministère britannique, et son démon Bartiméus doivent faire face aux conspirations d'un groupe de plébéiens capables de voir les démons, et à un magicien ayant créé la pire créature qui soit : un golem, capable de détruire l'Essence des démons par simple contact physique (ou de l'Essence, en l'occurrence). De Londres à Prague, on retrouve les deux héros et une certaine Kitty, membre de la Résistance, luttant contre les magiciens et leurs esclaves : les démons.
-La Porte de Ptolémée (2005)
-Dans ce livre, on retrouve Nathaniel, devenu membre éminent du gouvernement, et Bartiméus durant la féroce guerre opposant l'Angleterre à l'Amérique. Les plébéiens se rebellent contre les magiciens lors d'émeutes, de faits de vandalisme ou de réunions secrètes. Profitant du chaos et du mécontentement de ceux-ci, un sombre personnage tisse sa toile et fomente un complot lui permettant de devenir maître du monde grâce à une technique nouvelle, mystérieuse et terriblement dangereuse. Mais le jeune homme et l'esprit à la retraite veillent. Dans ce tome, on en apprend plus sur l'un des premiers maîtres de Bartiméus, Ptolémée, et sur son triste destin. Nathaniel retrouvera enfin sa vraie nature, celle du petit garçon qu'il était, avant que le livre ne se termine sur une note tragique.
-L'Anneau de Salomon (2010)
-Ce livre, paru en France en octobre 2011, se situe chronologiquement avant les trois premiers. Bartiméus est alors à l'époque du règne de Salomon qui a fait de Jérusalem une ville florissante grâce à son puissant anneau magique particulièrement redouté. Comme à son habitude le djinn multiplie les attitudes provocantes et se retrouve au service du magicien Khaba dit "le Cruel". A l'autre bout du royaume, Asmira, une jeune gardienne très agile, est chargée par la Reine de Saba d'une mission singulière et risquée : mettre fin à la menace que représente Salomon et son anneau pour le royaume de Saba.
+          <t>L'Amulette de Samarcande (2003)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bartiméus (prononcez Bartiméouss ou Bartiméuss), djinn vieux de quelque 5 000 ans, qui conversa avec Salomon, reconstruisit les remparts d'Uruk et de Prague, est invoqué, au XXIe siècle, par un jeune apprenti magicien (nom de naissance Nathaniel) résidant à Londres, qui va lui demander, à sa grande surprise, de subtiliser au puissant magicien Simon Lovelace l'amulette de Samarcande. Celle-ci est en fait au centre d'un complot qui entraînera Bartiméus à sauver régulièrement la vie de son maître surdoué, au cours de leur périple. Mais Nathaniel est imprévisible et Bartiméus doté d'un humour décapant – il s'amuse aux dépens des magiciens, démons et plébéiens.
 </t>
         </is>
       </c>
@@ -533,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trilogie_de_Bartim%C3%A9us</t>
+          <t>Trilogie_de_Bartiméus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +559,129 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L'Œil du Golem (2004)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel, recruté par le ministère britannique, et son démon Bartiméus doivent faire face aux conspirations d'un groupe de plébéiens capables de voir les démons, et à un magicien ayant créé la pire créature qui soit : un golem, capable de détruire l'Essence des démons par simple contact physique (ou de l'Essence, en l'occurrence). De Londres à Prague, on retrouve les deux héros et une certaine Kitty, membre de la Résistance, luttant contre les magiciens et leurs esclaves : les démons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trilogie_de_Bartiméus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trilogie_de_Bartim%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La Porte de Ptolémée (2005)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce livre, on retrouve Nathaniel, devenu membre éminent du gouvernement, et Bartiméus durant la féroce guerre opposant l'Angleterre à l'Amérique. Les plébéiens se rebellent contre les magiciens lors d'émeutes, de faits de vandalisme ou de réunions secrètes. Profitant du chaos et du mécontentement de ceux-ci, un sombre personnage tisse sa toile et fomente un complot lui permettant de devenir maître du monde grâce à une technique nouvelle, mystérieuse et terriblement dangereuse. Mais le jeune homme et l'esprit à la retraite veillent. Dans ce tome, on en apprend plus sur l'un des premiers maîtres de Bartiméus, Ptolémée, et sur son triste destin. Nathaniel retrouvera enfin sa vraie nature, celle du petit garçon qu'il était, avant que le livre ne se termine sur une note tragique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trilogie_de_Bartiméus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trilogie_de_Bartim%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'Anneau de Salomon (2010)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce livre, paru en France en octobre 2011, se situe chronologiquement avant les trois premiers. Bartiméus est alors à l'époque du règne de Salomon qui a fait de Jérusalem une ville florissante grâce à son puissant anneau magique particulièrement redouté. Comme à son habitude le djinn multiplie les attitudes provocantes et se retrouve au service du magicien Khaba dit "le Cruel". A l'autre bout du royaume, Asmira, une jeune gardienne très agile, est chargée par la Reine de Saba d'une mission singulière et risquée : mettre fin à la menace que représente Salomon et son anneau pour le royaume de Saba.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trilogie_de_Bartiméus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trilogie_de_Bartim%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les magiciens
-Dans tous les tomes :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les magiciens</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dans tous les tomes :
 M. Rupert Devereaux : premier ministre de Grande-Bretagne et de l'Empire. C'est un magicien de puissance moyenne, mais un homme politique retors, qui est parvenu à son poste en dressant ses rivaux les uns contre les autres. Il est possédé par un démon dans le tome 3.
 M. Carl Mortensen : ministre de l'Intérieur (tome 2), ministre de la Guerre (tome 3).
 Mme Jessica Whitwell : ministre de la Sûreté du Territoire - second maître de Nathaniel alias John Mandrake. Au lieu d'accepter la possession comme la plupart des membres du gouvernement, elle invoque un afrit qui détruit plusieurs démons incarné. Nouda la tuera quelques instants plus tard.
@@ -567,9 +694,43 @@
 Mlle Jane Farrar : sous-chef de la police
 M. Sholto Pinn : négociant ; propriétaire de Pinn's Equipements - Piccadilly Circus
 M. Quentin Makepeace : auteur dramatique ; auteur entre autres des Cygnes d'arabie, et antagoniste de Nathaniel dans le tome 3, où on apprend qu'il est à l'origine des événements des deux premiers.
-M. Arthur Underwood : ministre des affaires nationales (première moitié du tome 1) et premier maître de Nathaniel alias John Mandrake. Tué par Jabor sur ordre de Simon Lovelace.
-Les plébéiens
-Dans tous les tomes :
+M. Arthur Underwood : ministre des affaires nationales (première moitié du tome 1) et premier maître de Nathaniel alias John Mandrake. Tué par Jabor sur ordre de Simon Lovelace.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Trilogie_de_Bartiméus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trilogie_de_Bartim%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les plébéiens</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dans tous les tomes :
 Kitty Jones : appelée aussi Clara Bell et Lizzie Temple dans le tome 3
 Jakob Hyrnek : ami d'enfance de Kitty et victime du sort d'un magicien en présence de celle-ci
 Terence E. Pennyfeather : leader du groupuscule "La résistance" comprenant les membres ci-dessous
@@ -577,9 +738,43 @@
 Frederick Weaver
 Stanley Hake
 Nicholas Drew
-Clem Hopkins
-Les esprits
-Dans les trois premiers tomes :
+Clem Hopkins</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Trilogie_de_Bartiméus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trilogie_de_Bartim%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les esprits</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dans les trois premiers tomes :
 Bartiméus : un djinn - au service de M. Mandrake. Sarcastique, rusé et un peu vantard, sa première invocation remonte à l'époque sumérienne. Il est un des narrateurs des romans.
 Couizole : un djinn - au service de M. Ffoukes. Tuée par le golem.
 Aneth : un djinn - au service de Mme Whitwell
@@ -598,46 +793,121 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Trilogie_de_Bartim%C3%A9us</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Trilogie_de_Bartim%C3%A9us</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Trilogie_de_Bartiméus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trilogie_de_Bartim%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Détails de l'univers des romans</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monde de la Trilogie
-Le monde dans lequel évoluent les personnages est similaire au nôtre, par l'évocation de faits et lieux réels, entre autres, avec tout de même quelques différences majeures. Notons que l'ensemble peut aussi être lu comme une satire sociale, une stigmatisation de l'ambition et du désir de pouvoir, ainsi qu'une réflexion sur l'« humanité de l'humain » : dans bien des situations, le démon Bartiméus fait preuve de plus d'humanité que les magiciens, créatures d'ambition et de pouvoir, toujours plus avides de richesses. On y lit aussi entre les lignes un éloge de la rébellion, apanage de la jeunesse, incarnée dans le Tome II par la « Résistance ».
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le monde de la Trilogie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monde dans lequel évoluent les personnages est similaire au nôtre, par l'évocation de faits et lieux réels, entre autres, avec tout de même quelques différences majeures. Notons que l'ensemble peut aussi être lu comme une satire sociale, une stigmatisation de l'ambition et du désir de pouvoir, ainsi qu'une réflexion sur l'« humanité de l'humain » : dans bien des situations, le démon Bartiméus fait preuve de plus d'humanité que les magiciens, créatures d'ambition et de pouvoir, toujours plus avides de richesses. On y lit aussi entre les lignes un éloge de la rébellion, apanage de la jeunesse, incarnée dans le Tome II par la « Résistance ».
 Le monde décrit est dirigé depuis toujours par la caste des magiciens qui, par l'intermédiaire des démons qu'ils invoquent, s'imposent au sommet de l'échelle sociale. La trilogie évoque de nombreux empires magiques ayant gouverné le monde avant de disparaître, tels que l'empire égyptien, le Saint-Empire-Romain, ou, dans le contexte des romans, l'empire britannique. Le cycle évoque donc toute une relecture de l'histoire, dans laquelle les personnages célèbres sont le plus souvent magiciens.
 Le niveau technologique dépeint dans l’œuvre évoque le milieu du XXe siècle.
 Les personnages se divisent en trois catégories : démons, magiciens et plébéiens.
 Les démons sont des entités non humaines qui vivent dans « l’Autre Lieu ». Il existe plusieurs catégories d'esprits plus ou moins puissants (gnomes, foliots, djinns, afrits, marids, et bien d'autres entités hiérarchisées). Ces êtres, qui habituellement n’évoluent que dans « l’Autre Lieu », peuvent être invoqués par des humains : les magiciens. Dans le monde réel, selon l’étendue de leurs pouvoirs, ils peuvent se cacher des yeux des humains. Pour cela, ils se métamorphosent à différents « Niveaux de perception ». Un humain, ne voyant que sur un seul Niveau, percevra le djinn sous la forme que ce dernier aura choisi d’incarner. Au contraire, un autre djinn, capable de « voir » sur plusieurs Niveaux, le verra alors sous son véritable aspect. Les esprits possèdent une « Essence », et non pas un corps matériel. Cette Essence peut être blessée, notamment par les objets en argent.
 Les magiciens et magiciennes ont été enlevés à leurs parents biologiques dans leur petite enfance pour effectuer leur apprentissage chez un tuteur. C’est dans cette « famille d’accueil » qu'ils apprennent l'art de la magie, et comment invoquer les esprits. Pour invoquer un démon, le magicien doit tracer au sol deux pentacles et se placer au centre de celui qu'il s'est réservé (l'autre étant muni de runes et de formules en tout genre permettant un meilleur contrôle du démon invoqué). Il peut alors appeler un démon qui apparaît dans l’autre pentacle. Dans son propre pentacle, le magicien sera protégé du démon, furieux d’avoir été arraché de force à son monde. Il faut que le magicien donne au démon des ordres auxquels ce dernier est contraint d’obéir. Il doit préciser que si ses ordres ne sont pas respectés, le démon mourra de la manière qu'il aura choisie. Le magicien peut alors sortir du pentacle. Le démon se doit d’obéir uniquement aux ordres qui lui ont été donnés (le magicien ne doit donc pas oublier de lui préciser qu’il n’est pas autorisé à le tuer !). Une fois ses vœux prononcés, le magicien peut choisir de renvoyer l'esprit dans son monde ou lui confier une autre mission, qu'il sera forcé d’accepter (tout en essayant de se venger). Comme on l’a vu, le magicien, de par son apprentissage, a perdu tout lien avec ses parents biologiques. Il perd également son nom de naissance (au terme de son apprentissage, il pourra se choisir un nom dans une liste de noms de magiciens : l'Almanach Dénominatoire). Cela est dû au fait que si un esprit venait à apprendre le nom de naissance du magicien qui l’a invoqué, il pourrait se soustraire à ses ordres et se venger en lui retournant par exemple tous ses maléfices.
 Enfin il y a des « plébéiens », qui sont des humains « ordinaires ». Cette catégorie de personnes est exploitée par les magiciens, qui composent à la fois les forces de l’ordre et le gouvernement. Face à ce système totalitaire, une minorité de plébéiens se révoltent : ce sont les rebelles, qui par des vols et des attentats essaient de renverser le gouvernement des magiciens. Ces plébéiens peuvent exceptionnellement être dotés de « pouvoirs » : certains ont le don de résister à des attaques magiques mineures ou plus puissantes, d'autres peuvent percevoir une aura magique proche, voire percer à jour le « déguisement » d'un démon, c'est-à-dire le voir sous son vrai jour, et pas seulement au Niveau auquel il veut bien se montrer.
-Autre Lieu
-C'est le Monde des démons, lieu sans substance ni temps, où l'on trouve des tourbillons de lumière à la dérive (démons), où tous les démons ne font qu'un, et où rien n'est définitif (par exemple les « avatars » que l'on peut créer rien qu'en se concentrant).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Trilogie_de_Bartiméus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trilogie_de_Bartim%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Détails de l'univers des romans</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autre Lieu</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le Monde des démons, lieu sans substance ni temps, où l'on trouve des tourbillons de lumière à la dérive (démons), où tous les démons ne font qu'un, et où rien n'est définitif (par exemple les « avatars » que l'on peut créer rien qu'en se concentrant).
 Les humains peuvent y accéder à l'aide d'un démon de confiance, en supprimant toutes les protections habituelles contre les entités invoquées (romarin, bougies, protections sur le pentacle, etc.), en prononçant la formule à l'envers et en remplaçant le nom de l'entité par son propre nom.
 Ptolémée, premier à y être parvenu, conseille dans son livre de se munir d'un ankh ou d'une autre amulette (romarin, thym, argent, etc.) pour protéger son corps sur terre lors du voyage de son âme dans l'Autre Lieu. Seuls deux personnes y sont arrivées : Ptolémée (magicien de l'Égypte antique, à l'aide du djinn intermédiaire Bartiméus) et Kitty Jones (plébéienne, elle aussi à l'aide de Bartiméus, tome 3). Les conséquences de ce voyage sont une aura lumineuse et un vieillissement accéléré (en fonction du temps resté dans l'Autre Lieu).
-Esprits
-Mites : petits insectes volants armés de petites dents pointues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Trilogie_de_Bartiméus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trilogie_de_Bartim%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Détails de l'univers des romans</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Esprits</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mites : petits insectes volants armés de petites dents pointues.
 Gnomes : peureux démons n'ayant aucune volonté d'initiative.
 Gnomoncules : les mêmes en plus petits.
 Foliot: Esprits de puissance intermédiaire. Ils ne sont pas très courageux, mais leur discrétion en fait d'excellents espions. Certaines sous-espèces sont également des bâtisseurs, mais tombent en cendre en entendant des cloches.
@@ -659,15 +929,167 @@
 Le Souffle docile (type de conjuration, forme une exhalaison par la bouche associée à un signe magique, et utilisé généralement pour ouvrir des brèches dans les nexus ou autres systèmes d'alarmes - accessible à tout esprit à partir du Djinn).
 Ouragan (violent souffle de vent qui projette la cible sur plusieurs mètres - accessible à tout esprit à partir du Djinn).
 Ainsi que bien d'autres tels que la lévitation et autres pouvoirs mentionnés dans les livres. Il ne faut cependant pas oublier que chaque utilisation de la magie (même la Transformation) coûte de l'énergie à l'utilisateur, et qu'il ne pourra récupérer qu'après un séjour plus ou moins long dans l'Autre Lieu.
-Rites d'invocation des esprits
-Les esprits s'invoquent par pentacles interposés. Seuls les magiciens possèdent les connaissances requises, sauf une plébéienne, une des héroïnes de l'histoire, Kitty Jones.
-Le pentacle
-On peut voir dans la trilogie qu'il est très dangereux d'invoquer un esprit hors d'un pentacle : ce dernier permet de soumettre  l'esprit invoqué à la volonté du magicien. En effet, l'invocation hors du pentacle libérerait l'esprit, qui serait alors capable de faire ce que bon lui semble, à commencer par dévorer son invocateur (ce fait est exposé en note de bas de page dans le tome 1 : selon Bartiméus, des magiciens de Santorin auraient invoqué hors pentacle une puissante divinité qui aurait détruit l'Atlantide).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Trilogie_de_Bartiméus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trilogie_de_Bartim%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Détails de l'univers des romans</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Rites d'invocation des esprits</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les esprits s'invoquent par pentacles interposés. Seuls les magiciens possèdent les connaissances requises, sauf une plébéienne, une des héroïnes de l'histoire, Kitty Jones.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Trilogie_de_Bartiméus</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trilogie_de_Bartim%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Détails de l'univers des romans</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Rites d'invocation des esprits</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Le pentacle</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut voir dans la trilogie qu'il est très dangereux d'invoquer un esprit hors d'un pentacle : ce dernier permet de soumettre  l'esprit invoqué à la volonté du magicien. En effet, l'invocation hors du pentacle libérerait l'esprit, qui serait alors capable de faire ce que bon lui semble, à commencer par dévorer son invocateur (ce fait est exposé en note de bas de page dans le tome 1 : selon Bartiméus, des magiciens de Santorin auraient invoqué hors pentacle une puissante divinité qui aurait détruit l'Atlantide).
 Ainsi le magicien trace sommairement deux pentacles au sol, à la craie (les pentacles pouvant aussi être tracés de façon plus durable, c'est le cas entre autres de ceux présents chez les différents ministres, très souvent utilisés), l'un accueillant l'esprit invoqué, le second où il se place lui-même pour lui imposer sa volonté. Le pentacle a une forme déterminée et peut être renforcé par de nombreuses formules écrites ou dessins supplémentaires (comme mentionné dans les différents tomes, le pentacle d'Aldebrand, la Révocation automatique…). Le pentacle est parcouru d'inscriptions rédigées en grec, en latin, en araméen en copte et autres langues anciennes. Il est important pour le magicien d'éviter les imperfections telles que les fautes d'orthographe ou de syntaxe, les discontinuités dans les traits du pentacle ou autres, car cela libérerait l'esprit (dans le tome 2, Julius Tallow se fait dévorer par l'afrit qu'il a invoqué à cause d'une coquille volontaire de son éditeur, dont il a grièvement blessé le plus jeune fils).
-Aides additionnelles
-L'invocateur doit également disposer autour des deux pentacles divers aromates (romarin, thym...), bougies et encens pour se protéger de l'esprit.
-Formules invocatoires
-Les formules à prononcer sont en grec, latin, araméen, tchèque (plus différentes langues anciennes), et doivent être scrupuleusement énoncées, sous peine de voir le démon échapper à tout contrôle. Il existe six paroles de commandement qui servent à faire apparaître et solidifier le démon, le soumettre et l'obliger à obéir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Trilogie_de_Bartiméus</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trilogie_de_Bartim%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Détails de l'univers des romans</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Rites d'invocation des esprits</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Aides additionnelles</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'invocateur doit également disposer autour des deux pentacles divers aromates (romarin, thym...), bougies et encens pour se protéger de l'esprit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Trilogie_de_Bartiméus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trilogie_de_Bartim%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Détails de l'univers des romans</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Rites d'invocation des esprits</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Formules invocatoires</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les formules à prononcer sont en grec, latin, araméen, tchèque (plus différentes langues anciennes), et doivent être scrupuleusement énoncées, sous peine de voir le démon échapper à tout contrôle. Il existe six paroles de commandement qui servent à faire apparaître et solidifier le démon, le soumettre et l'obliger à obéir.
 </t>
         </is>
       </c>
